--- a/05-Test/Testsuites/AnnuityCalculator.xlsx
+++ b/05-Test/Testsuites/AnnuityCalculator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AppData\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enok Mikkelsen\GitHub\DMU14EksamensProjekt2sem\05-Test\Testsuites\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30696" windowHeight="13668" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30690" windowHeight="13665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tilbagebetalingsplan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="35">
   <si>
     <t>Principal:</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Beløb kan ikke være null</t>
+  </si>
+  <si>
+    <t>TestSuite AnnuityCalculator</t>
   </si>
 </sst>
 </file>
@@ -339,9 +342,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -379,7 +382,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +454,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,17 +610,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +628,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -633,7 +636,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -641,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -686,7 +689,7 @@
         <v>903.69295234394474</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -711,7 +714,7 @@
         <v>806.58334595742235</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -736,7 +739,7 @@
         <v>708.66449285101226</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -761,7 +764,7 @@
         <v>609.9296493020488</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -786,7 +789,7 @@
         <v>510.3720153901773</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -811,7 +814,7 @@
         <v>409.98473452904022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -836,7 +839,7 @@
         <v>308.76089299406033</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -861,7 +864,7 @@
         <v>206.69351944628892</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -886,7 +889,7 @@
         <v>103.77558445228611</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -911,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -936,7 +939,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -961,7 +964,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -986,7 +989,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1225,15 +1228,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="41" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="7.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="41" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1380,991 +1383,996 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="45">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C3" s="22">
         <v>1000</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E3" s="24">
         <v>506.26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="24">
-        <v>497.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="24">
+        <v>497.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C5" s="26">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E5" s="24">
         <v>8.33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="28" t="s">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E6" s="29">
         <v>502.07</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C7" s="22">
         <v>1000</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E7" s="24">
         <v>506.26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="24">
-        <v>502.07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="24">
+        <v>502.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C9" s="26">
         <v>2</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E9" s="24">
         <v>4.18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="28" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C10" s="27">
         <v>2</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E10" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
         <v>15</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C11" s="22">
         <v>1000</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E11" s="24">
         <v>104.64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="24">
-        <v>96.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="24">
+        <v>96.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C13" s="26">
         <v>10</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E13" s="24">
         <v>8.33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="28" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="27">
-        <v>1</v>
-      </c>
-      <c r="D13" s="28" t="s">
+      <c r="C14" s="27">
+        <v>1</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E14" s="29">
         <v>903.69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
         <v>16</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C15" s="22">
         <v>1000</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E15" s="24">
         <v>104.64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="24">
-        <v>103.78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="24">
+        <v>103.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C17" s="26">
         <v>10</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E17" s="24">
         <v>0.86</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="28" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C18" s="27">
         <v>10</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E18" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
         <v>3</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C19" s="31">
         <v>0.01</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D19" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E19" s="33">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="34">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="35">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C20" s="34">
+        <v>1</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="35">
+        <v>2</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="37">
-        <v>1</v>
-      </c>
-      <c r="D21" s="38" t="s">
+      <c r="C22" s="37">
+        <v>1</v>
+      </c>
+      <c r="D22" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E22" s="39">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="30">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B23" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C23" s="31">
         <v>0.01</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D23" s="32" t="s">
         <v>12</v>
-      </c>
-      <c r="E22" s="33">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="34">
-        <v>1</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>13</v>
       </c>
       <c r="E23" s="33">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="34">
+        <v>1</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C25" s="35">
         <v>2</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E25" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="38" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C26" s="37">
         <v>2</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E26" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="30">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
         <v>5</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B27" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C27" s="31">
         <v>1000</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D27" s="32" t="s">
         <v>12</v>
-      </c>
-      <c r="E26" s="33">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="34">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>13</v>
       </c>
       <c r="E27" s="33">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
       <c r="B28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="34">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C29" s="35">
         <v>2</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E29" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="38" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="37">
-        <v>1</v>
-      </c>
-      <c r="D29" s="38" t="s">
+      <c r="C30" s="37">
+        <v>1</v>
+      </c>
+      <c r="D30" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E30" s="39">
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="30">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
         <v>6</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B31" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C31" s="31">
         <v>1000</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D31" s="32" t="s">
         <v>12</v>
-      </c>
-      <c r="E30" s="33">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="34">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>13</v>
       </c>
       <c r="E31" s="33">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="34">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C33" s="35">
         <v>2</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D33" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E33" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
-      <c r="B33" s="38" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C34" s="37">
         <v>2</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D34" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E34" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="30">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
         <v>7</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B35" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C35" s="31">
         <v>1000</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D35" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E35" s="33">
         <v>1008.33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="35">
-        <v>1</v>
-      </c>
-      <c r="D36" s="32" t="s">
+      <c r="C37" s="35">
+        <v>1</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E37" s="33">
         <v>8.33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
-      <c r="B37" s="38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="38" t="s">
+      <c r="C38" s="37">
+        <v>1</v>
+      </c>
+      <c r="D38" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E38" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
         <v>8</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B39" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C39" s="40">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D39" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C41" s="17">
         <v>2</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20" t="s">
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="19">
-        <v>1</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
         <v>9</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C43" s="13">
         <v>1000</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D43" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="16">
-        <v>0</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C45" s="17">
         <v>2</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="20" t="s">
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="19">
-        <v>1</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+      <c r="C46" s="19">
+        <v>1</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
         <v>10</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C47" s="13">
         <v>1000</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D47" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C49" s="17">
         <v>0</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="20" t="s">
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="19">
-        <v>1</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="C50" s="19">
+        <v>1</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
         <v>11</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C51" s="13">
         <v>1000</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D51" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C53" s="17">
         <v>2</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="20" t="s">
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C54" s="19">
         <v>0</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
         <v>12</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C55" s="13">
         <v>1000</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="15"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C57" s="17">
         <v>2</v>
       </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="20" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="19">
-        <v>1</v>
-      </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
+      <c r="C58" s="19">
+        <v>1</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
         <v>13</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C59" s="13">
         <v>1000</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D59" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C61" s="17">
         <v>2</v>
       </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="20" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="19">
-        <v>1</v>
-      </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="12">
+      <c r="C62" s="19">
+        <v>1</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
         <v>14</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B63" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C63" s="13">
         <v>1000</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D63" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
-      <c r="B63" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="17">
-        <v>1</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="20" t="s">
+      <c r="C65" s="17">
+        <v>1</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C66" s="19">
         <v>2</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="12">
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
         <v>17</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B67" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D67" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="15"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>33</v>
-      </c>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C69" s="17">
         <v>2</v>
       </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20" t="s">
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="19">
-        <v>1</v>
-      </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
+      <c r="C70" s="19">
+        <v>1</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
